--- a/Excel/EquipRedConfig.xlsx
+++ b/Excel/EquipRedConfig.xlsx
@@ -74,10 +74,10 @@
     <t>无视防御+10%</t>
   </si>
   <si>
-    <t>道术倍率</t>
-  </si>
-  <si>
     <t>召唤数量+1</t>
+  </si>
+  <si>
+    <t>宠物攻速</t>
   </si>
   <si>
     <t>继承比例</t>
@@ -1041,7 +1041,7 @@
   <dimension ref="C1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1268,13 +1268,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="1">
-        <v>2006</v>
+        <v>306</v>
       </c>
       <c r="G12" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>15</v>
@@ -1291,13 +1291,13 @@
         <v>6</v>
       </c>
       <c r="F13" s="1">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>16</v>

--- a/Excel/EquipRedConfig.xlsx
+++ b/Excel/EquipRedConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
   <dimension ref="C1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1297,7 +1297,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>16</v>

--- a/Excel/EquipRedConfig.xlsx
+++ b/Excel/EquipRedConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Role</t>
   </si>
   <si>
+    <t>Quality</t>
+  </si>
+  <si>
     <t>Count</t>
   </si>
   <si>
@@ -81,6 +84,12 @@
   </si>
   <si>
     <t>继承比例</t>
+  </si>
+  <si>
+    <t>物伤倍率</t>
+  </si>
+  <si>
+    <t>道伤倍率</t>
   </si>
 </sst>
 </file>
@@ -1038,28 +1047,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:I14"/>
+  <dimension ref="C1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="16.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="16.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
-      <c r="I1" s="1" t="s">
+    <row r="1" spans="10:10">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:9">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1078,10 +1087,13 @@
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="3:8">
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -1098,28 +1110,34 @@
       <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="3:8">
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1127,22 +1145,25 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>2003</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>50</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>10</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9">
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1153,19 +1174,22 @@
         <v>6</v>
       </c>
       <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
         <v>2002</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>50</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>10</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9">
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1173,22 +1197,25 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>2011</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>20</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9">
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1196,22 +1223,25 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>2008</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>20</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>5</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9">
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1222,19 +1252,22 @@
         <v>6</v>
       </c>
       <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
         <v>2005</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>5</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9">
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1242,22 +1275,25 @@
         <v>2</v>
       </c>
       <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>30</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9">
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1265,22 +1301,25 @@
         <v>3</v>
       </c>
       <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>306</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9">
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1291,19 +1330,22 @@
         <v>6</v>
       </c>
       <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
         <v>307</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>50</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>20</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9">
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1311,19 +1353,256 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>17</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>10</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2007</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2002</v>
+      </c>
+      <c r="H17" s="1">
+        <v>30</v>
+      </c>
+      <c r="I17" s="1">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H18" s="1">
+        <v>40</v>
+      </c>
+      <c r="I18" s="1">
+        <v>40</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="1">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2008</v>
+      </c>
+      <c r="H19" s="1">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="1">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2005</v>
+      </c>
+      <c r="H20" s="1">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1">
+        <v>20</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="1">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2009</v>
+      </c>
+      <c r="H22" s="1">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1">
+        <v>20</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="1">
         <v>17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2002</v>
+      </c>
+      <c r="H23" s="1">
+        <v>30</v>
+      </c>
+      <c r="I23" s="1">
+        <v>30</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="1">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H24" s="1">
+        <v>40</v>
+      </c>
+      <c r="I24" s="1">
+        <v>40</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EquipRedConfig.xlsx
+++ b/Excel/EquipRedConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,10 @@
     <t>继承比例</t>
   </si>
   <si>
-    <t>物伤倍率</t>
-  </si>
-  <si>
-    <t>道伤倍率</t>
+    <t>物攻倍率</t>
+  </si>
+  <si>
+    <t>道攻倍率</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1050,7 @@
   <dimension ref="C1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1385,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="1">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="H16" s="1">
         <v>20</v>
@@ -1463,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="1">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="H19" s="1">
         <v>20</v>
@@ -1472,7 +1472,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -1489,16 +1489,16 @@
         <v>6</v>
       </c>
       <c r="G20" s="1">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="H20" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I20" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="3:10">
@@ -1518,10 +1518,10 @@
         <v>2001</v>
       </c>
       <c r="H21" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I21" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>10</v>
@@ -1541,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="H22" s="1">
         <v>20</v>

--- a/Excel/EquipRedConfig.xlsx
+++ b/Excel/EquipRedConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1050,7 +1050,7 @@
   <dimension ref="C1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1284,7 +1284,7 @@
         <v>30</v>
       </c>
       <c r="H11" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
